--- a/precios_materiales.xlsx
+++ b/precios_materiales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ac433d790bec414/Desktop/LISTAVY APP/Apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{373B5A23-169D-4B7F-A0F5-5582AD643CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{373B5A23-169D-4B7F-A0F5-5582AD643CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505FF7E3-4D81-459D-9C53-45260546B86E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>32</v>
       </c>
       <c r="C9">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>32</v>
       </c>
       <c r="C10">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/precios_materiales.xlsx
+++ b/precios_materiales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ac433d790bec414/Desktop/LISTAVY APP/Apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{373B5A23-169D-4B7F-A0F5-5582AD643CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505FF7E3-4D81-459D-9C53-45260546B86E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{373B5A23-169D-4B7F-A0F5-5582AD643CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81399E53-103F-4BC9-8E0E-02D4910C2727}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2610" windowWidth="38400" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,7 +550,7 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,6 +560,9 @@
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C5">
+        <v>780</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -646,7 +649,7 @@
         <v>33</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,7 +660,7 @@
         <v>33</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,7 +726,7 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
